--- a/global_data/day_data/002622.xlsx
+++ b/global_data/day_data/002622.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2890"/>
+  <dimension ref="A1:I2892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -84218,6 +84220,64 @@
         <v>0.03975755238026359</v>
       </c>
     </row>
+    <row r="2891" spans="1:9">
+      <c r="A2891" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2891">
+        <v>2.4</v>
+      </c>
+      <c r="C2891">
+        <v>2.46</v>
+      </c>
+      <c r="D2891">
+        <v>2.36</v>
+      </c>
+      <c r="E2891">
+        <v>2.43</v>
+      </c>
+      <c r="F2891">
+        <v>21144000</v>
+      </c>
+      <c r="G2891">
+        <v>51196633</v>
+      </c>
+      <c r="H2891">
+        <v>839975250</v>
+      </c>
+      <c r="I2891">
+        <v>0.02517217025144491</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:9">
+      <c r="A2892" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2892">
+        <v>2.49</v>
+      </c>
+      <c r="C2892">
+        <v>2.51</v>
+      </c>
+      <c r="D2892">
+        <v>2.45</v>
+      </c>
+      <c r="E2892">
+        <v>2.5</v>
+      </c>
+      <c r="F2892">
+        <v>17720187</v>
+      </c>
+      <c r="G2892">
+        <v>44131928</v>
+      </c>
+      <c r="H2892">
+        <v>839975250</v>
+      </c>
+      <c r="I2892">
+        <v>0.02109608229528192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
